--- a/medicine/Pharmacie/Eugène_Tassilly/Eugène_Tassilly.xlsx
+++ b/medicine/Pharmacie/Eugène_Tassilly/Eugène_Tassilly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Tassilly</t>
+          <t>Eugène_Tassilly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Tassilly est un chimiste et pharmacien français né le 5 décembre 1867 à Paris 2e et mort à Paris 5e le 12 novembre 1940[1],[2],[3]. Il était professeur agrégé à la Faculté de pharmacie de Paris, chef de laboratoire et chargé de conférence à l'École municipale de physique et de chimie industrielles de la ville de Paris, et directeur des cours sur l'emploi militaire des gaz.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Tassilly est un chimiste et pharmacien français né le 5 décembre 1867 à Paris 2e et mort à Paris 5e le 12 novembre 1940. Il était professeur agrégé à la Faculté de pharmacie de Paris, chef de laboratoire et chargé de conférence à l'École municipale de physique et de chimie industrielles de la ville de Paris, et directeur des cours sur l'emploi militaire des gaz.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Tassilly</t>
+          <t>Eugène_Tassilly</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Paris de parents artisans couteliers, Eugène Tassilly sort ingénieur diplômé de l’École municipale de physique et de chimie industrielles de la Ville de Paris en 1887, cinq ans après la création de l'école.
 Il devient le préparateur de Joseph Riban à la Faculté des sciences de Paris, puis par la suite, après avoir obtenu une licence en sciences physiques, est nommé préparateur de la chaire de chimie organique du Collège de France et travaille avec Marcellin Berthelot de 1890 à 1895. Il suit par la suite des études de pharmacie. De 1895 à 1897, il est boursier d'études chez Louis Joseph Troost.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Tassilly</t>
+          <t>Eugène_Tassilly</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Recherches scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses recherches ont été consacrées à des problèmes de chimie physique appliquée à la chimie. Il étudia notamment le dosage de la caféine, puis s'initia aux méthodes thermochimiques dans le laboratoire de Berthelot et les appliqua aux combinaisons halogénées basiques ou ammoniacales de divers métaux, objet de sa thèse de doctorat.
 Il obtint des produits parfaitement cristallisés et put déterminer leurs constantes thermiques. Il s'occupa ensuite du problème du nickelage de l'aluminium et des applications du spectrophotomètre au dosage du fer et à celui du cuivre dans les conserves alimentaires ainsi qu'à l'étude des facteurs de la diazotation.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Tassilly</t>
+          <t>Eugène_Tassilly</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lauréat de l'École supérieure de pharmacie.
 Lauréat de l'Académie des sciences.
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Tassilly</t>
+          <t>Eugène_Tassilly</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sur le dosage de la caféine, 56 pages, Paris, Société d'éditions scientifiques, 1897.
 Les poisons organiques, 36 pages, Paris, H. Gauthier, Bibliothèque scientifique des écoles et des familles, 1897.
